--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H2">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I2">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J2">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.01567066666667</v>
+        <v>10.67287833333334</v>
       </c>
       <c r="N2">
-        <v>75.047012</v>
+        <v>32.018635</v>
       </c>
       <c r="O2">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="P2">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="Q2">
-        <v>625.6021734726439</v>
+        <v>95.3934750181111</v>
       </c>
       <c r="R2">
-        <v>5630.419561253796</v>
+        <v>858.541275163</v>
       </c>
       <c r="S2">
-        <v>0.1467647518483345</v>
+        <v>0.04795232769295021</v>
       </c>
       <c r="T2">
-        <v>0.1467647518483345</v>
+        <v>0.0479523276929502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H3">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I3">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J3">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>77.993656</v>
       </c>
       <c r="O3">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="P3">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="Q3">
-        <v>650.165801546872</v>
+        <v>232.3673659169777</v>
       </c>
       <c r="R3">
-        <v>5851.492213921848</v>
+        <v>2091.3062932528</v>
       </c>
       <c r="S3">
-        <v>0.1525273193899361</v>
+        <v>0.1168062708008393</v>
       </c>
       <c r="T3">
-        <v>0.1525273193899361</v>
+        <v>0.1168062708008393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H4">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I4">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J4">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.83851733333334</v>
+        <v>14.566016</v>
       </c>
       <c r="N4">
-        <v>59.51555200000001</v>
+        <v>43.698048</v>
       </c>
       <c r="O4">
-        <v>0.2799991080006975</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="P4">
-        <v>0.2799991080006974</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="Q4">
-        <v>496.129795102624</v>
+        <v>130.1900799402666</v>
       </c>
       <c r="R4">
-        <v>4465.168155923617</v>
+        <v>1171.7107194624</v>
       </c>
       <c r="S4">
-        <v>0.1163908460525604</v>
+        <v>0.06544386158992309</v>
       </c>
       <c r="T4">
-        <v>0.1163908460525603</v>
+        <v>0.06544386158992309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.01567066666667</v>
+        <v>10.67287833333334</v>
       </c>
       <c r="N5">
-        <v>75.047012</v>
+        <v>32.018635</v>
       </c>
       <c r="O5">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="P5">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="Q5">
-        <v>512.7216612817426</v>
+        <v>218.7515171046884</v>
       </c>
       <c r="R5">
-        <v>4614.494951535684</v>
+        <v>1968.763653942195</v>
       </c>
       <c r="S5">
-        <v>0.1202832575973639</v>
+        <v>0.1099618651018058</v>
       </c>
       <c r="T5">
-        <v>0.1202832575973639</v>
+        <v>0.1099618651018058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>77.993656</v>
       </c>
       <c r="O6">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="P6">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="Q6">
         <v>532.8531517518213</v>
@@ -818,10 +818,10 @@
         <v>4795.678365766392</v>
       </c>
       <c r="S6">
-        <v>0.1250060564117887</v>
+        <v>0.2678542629899322</v>
       </c>
       <c r="T6">
-        <v>0.1250060564117887</v>
+        <v>0.2678542629899321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.83851733333334</v>
+        <v>14.566016</v>
       </c>
       <c r="N7">
-        <v>59.51555200000001</v>
+        <v>43.698048</v>
       </c>
       <c r="O7">
-        <v>0.2799991080006975</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="P7">
-        <v>0.2799991080006974</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="Q7">
-        <v>406.6106281958294</v>
+        <v>298.545340690304</v>
       </c>
       <c r="R7">
-        <v>3659.495653762464</v>
+        <v>2686.908066212736</v>
       </c>
       <c r="S7">
-        <v>0.09538986671801547</v>
+        <v>0.1500725705323864</v>
       </c>
       <c r="T7">
-        <v>0.09538986671801546</v>
+        <v>0.1500725705323864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H8">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I8">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J8">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.01567066666667</v>
+        <v>10.67287833333334</v>
       </c>
       <c r="N8">
-        <v>75.047012</v>
+        <v>32.018635</v>
       </c>
       <c r="O8">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="P8">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="Q8">
-        <v>366.6746808207529</v>
+        <v>100.2444761019167</v>
       </c>
       <c r="R8">
-        <v>3300.072127386776</v>
+        <v>902.20028491725</v>
       </c>
       <c r="S8">
-        <v>0.0860209903699739</v>
+        <v>0.05039082564645633</v>
       </c>
       <c r="T8">
-        <v>0.08602099036997392</v>
+        <v>0.05039082564645631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H9">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I9">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J9">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>77.993656</v>
       </c>
       <c r="O9">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="P9">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="Q9">
-        <v>381.0717863070098</v>
+        <v>244.1838380990666</v>
       </c>
       <c r="R9">
-        <v>3429.646076763088</v>
+        <v>2197.6545428916</v>
       </c>
       <c r="S9">
-        <v>0.08939851638190549</v>
+        <v>0.1227461670688239</v>
       </c>
       <c r="T9">
-        <v>0.0893985163819055</v>
+        <v>0.1227461670688239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H10">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I10">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J10">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.83851733333334</v>
+        <v>14.566016</v>
       </c>
       <c r="N10">
-        <v>59.51555200000001</v>
+        <v>43.698048</v>
       </c>
       <c r="O10">
-        <v>0.2799991080006975</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="P10">
-        <v>0.2799991080006974</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="Q10">
-        <v>290.7890061428552</v>
+        <v>136.8105769792</v>
       </c>
       <c r="R10">
-        <v>2617.101055285696</v>
+        <v>1231.2951928128</v>
       </c>
       <c r="S10">
-        <v>0.06821839523012166</v>
+        <v>0.06877184857688277</v>
       </c>
       <c r="T10">
-        <v>0.06821839523012165</v>
+        <v>0.06877184857688277</v>
       </c>
     </row>
   </sheetData>
